--- a/cypress/fixtures/Fal6-Files/FAL 6-With-2same-NumberAndCountry.xlsx
+++ b/cypress/fixtures/Fal6-Files/FAL 6-With-2same-NumberAndCountry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Homeoffice\NMSW-Main\nmsw-ui\cypress\fixtures\Fal6-Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Homeoffice\NMSWTemp\nmsw-ui\cypress\fixtures\Fal6-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF170010-1D4C-4388-AF2C-E45B4A7A3C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471670D4-D41D-4C3A-A5D0-0DB42E98C655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FAL 6" sheetId="1" r:id="rId1"/>
@@ -5983,24 +5983,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P966"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="19.81640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" style="1" customWidth="1"/>
-    <col min="6" max="11" width="19.81640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.1796875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.81640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="22.453125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.453125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.453125" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.54296875" style="1" hidden="1"/>
+    <col min="1" max="4" width="19.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="1" customWidth="1"/>
+    <col min="6" max="11" width="19.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.5703125" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="93">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="94.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6038,7 +6038,7 @@
       <c r="N2" s="41"/>
       <c r="O2" s="41"/>
     </row>
-    <row r="3" spans="1:15" ht="62">
+    <row r="3" spans="1:15" ht="63">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="11" customFormat="1" ht="201.5">
+    <row r="4" spans="1:15" s="11" customFormat="1" ht="210">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -8263,15 +8263,15 @@
       <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="21" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="21" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="41.1796875" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="58.5">
@@ -8279,7 +8279,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="23" t="s">
         <v>55</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="21" t="s">
         <v>62</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="21" t="s">
         <v>69</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7" ht="15.75">
       <c r="A5" s="21" t="s">
         <v>75</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.5">
+    <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="21" t="s">
         <v>81</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.5">
+    <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="21" t="s">
         <v>87</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.5">
+    <row r="8" spans="1:7" ht="15.75">
       <c r="A8" s="21" t="s">
         <v>93</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.5">
+    <row r="9" spans="1:7" ht="15.75">
       <c r="A9" s="21" t="s">
         <v>99</v>
       </c>
@@ -8463,7 +8463,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.5">
+    <row r="10" spans="1:7" ht="15.75">
       <c r="A10" s="21" t="s">
         <v>105</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.5">
+    <row r="11" spans="1:7" ht="15.75">
       <c r="A11" s="21" t="s">
         <v>112</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.5">
+    <row r="12" spans="1:7" ht="15.75">
       <c r="A12" s="21" t="s">
         <v>119</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.5">
+    <row r="13" spans="1:7" ht="15.75">
       <c r="A13" s="21" t="s">
         <v>125</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.5">
+    <row r="14" spans="1:7" ht="15.75">
       <c r="A14" s="21" t="s">
         <v>131</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.5">
+    <row r="15" spans="1:7" ht="15.75">
       <c r="A15" s="21" t="s">
         <v>137</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.5">
+    <row r="16" spans="1:7" ht="15.75">
       <c r="A16" s="21" t="s">
         <v>144</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.5">
+    <row r="17" spans="1:7" ht="15.75">
       <c r="A17" s="21" t="s">
         <v>150</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.5">
+    <row r="18" spans="1:7" ht="15.75">
       <c r="A18" s="21" t="s">
         <v>156</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.5">
+    <row r="19" spans="1:7" ht="15.75">
       <c r="A19" s="21" t="s">
         <v>162</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.5">
+    <row r="20" spans="1:7" ht="15.75">
       <c r="A20" s="21" t="s">
         <v>168</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.5">
+    <row r="21" spans="1:7" ht="15.75">
       <c r="A21" s="21" t="s">
         <v>174</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.5">
+    <row r="22" spans="1:7" ht="15.75">
       <c r="A22" s="21" t="s">
         <v>181</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.5">
+    <row r="23" spans="1:7" ht="15.75">
       <c r="A23" s="21" t="s">
         <v>187</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.5">
+    <row r="24" spans="1:7" ht="15.75">
       <c r="A24" s="21" t="s">
         <v>193</v>
       </c>
@@ -8808,7 +8808,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.5">
+    <row r="25" spans="1:7" ht="15.75">
       <c r="A25" s="21" t="s">
         <v>199</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.5">
+    <row r="26" spans="1:7" ht="15.75">
       <c r="A26" s="21" t="s">
         <v>205</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.5">
+    <row r="27" spans="1:7" ht="15.75">
       <c r="A27" s="21" t="s">
         <v>211</v>
       </c>
@@ -8877,7 +8877,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.5">
+    <row r="28" spans="1:7" ht="15.75">
       <c r="A28" s="21" t="s">
         <v>218</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.5">
+    <row r="29" spans="1:7" ht="15.75">
       <c r="A29" s="21" t="s">
         <v>224</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.5">
+    <row r="30" spans="1:7" ht="15.75">
       <c r="A30" s="21" t="s">
         <v>230</v>
       </c>
@@ -8946,7 +8946,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.5">
+    <row r="31" spans="1:7" ht="15.75">
       <c r="A31" s="21" t="s">
         <v>236</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.5">
+    <row r="32" spans="1:7" ht="15.75">
       <c r="A32" s="21" t="s">
         <v>243</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.5">
+    <row r="33" spans="1:7" ht="15.75">
       <c r="A33" s="21" t="s">
         <v>250</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.5">
+    <row r="34" spans="1:7" ht="15.75">
       <c r="A34" s="21" t="s">
         <v>257</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.5">
+    <row r="35" spans="1:7" ht="15.75">
       <c r="A35" s="21" t="s">
         <v>264</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.5">
+    <row r="36" spans="1:7" ht="15.75">
       <c r="A36" s="21" t="s">
         <v>270</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.5">
+    <row r="37" spans="1:7" ht="15.75">
       <c r="A37" s="21" t="s">
         <v>276</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.5">
+    <row r="38" spans="1:7" ht="15.75">
       <c r="A38" s="21" t="s">
         <v>282</v>
       </c>
@@ -9130,7 +9130,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.5">
+    <row r="39" spans="1:7" ht="15.75">
       <c r="A39" s="21" t="s">
         <v>288</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.5">
+    <row r="40" spans="1:7" ht="15.75">
       <c r="A40" s="21" t="s">
         <v>294</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.5">
+    <row r="41" spans="1:7" ht="15.75">
       <c r="A41" s="21" t="s">
         <v>300</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.5">
+    <row r="42" spans="1:7" ht="15.75">
       <c r="A42" s="21" t="s">
         <v>307</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.5">
+    <row r="43" spans="1:7" ht="15.75">
       <c r="A43" s="21" t="s">
         <v>314</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.5">
+    <row r="44" spans="1:7" ht="15.75">
       <c r="A44" s="21" t="s">
         <v>320</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.5">
+    <row r="45" spans="1:7" ht="15.75">
       <c r="A45" s="21" t="s">
         <v>326</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.5">
+    <row r="46" spans="1:7" ht="15.75">
       <c r="A46" s="21" t="s">
         <v>332</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.5">
+    <row r="47" spans="1:7" ht="15.75">
       <c r="A47" s="21" t="s">
         <v>339</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.5">
+    <row r="48" spans="1:7" ht="15.75">
       <c r="A48" s="21" t="s">
         <v>345</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.5">
+    <row r="49" spans="1:7" ht="15.75">
       <c r="A49" s="21" t="s">
         <v>351</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.5">
+    <row r="50" spans="1:7" ht="15.75">
       <c r="A50" s="21" t="s">
         <v>357</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.5">
+    <row r="51" spans="1:7" ht="15.75">
       <c r="A51" s="21" t="s">
         <v>363</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.5">
+    <row r="52" spans="1:7" ht="15.75">
       <c r="A52" s="21" t="s">
         <v>370</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.5">
+    <row r="53" spans="1:7" ht="15.75">
       <c r="A53" s="21" t="s">
         <v>377</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15.5">
+    <row r="54" spans="1:7" ht="15.75">
       <c r="A54" s="21" t="s">
         <v>383</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15.5">
+    <row r="55" spans="1:7" ht="15.75">
       <c r="A55" s="21" t="s">
         <v>389</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.5">
+    <row r="56" spans="1:7" ht="15.75">
       <c r="A56" s="21" t="s">
         <v>395</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.5">
+    <row r="57" spans="1:7" ht="15.75">
       <c r="A57" s="21" t="s">
         <v>401</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15.5">
+    <row r="58" spans="1:7" ht="15.75">
       <c r="A58" s="21" t="s">
         <v>407</v>
       </c>
@@ -9590,7 +9590,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15.5">
+    <row r="59" spans="1:7" ht="15.75">
       <c r="A59" s="21" t="s">
         <v>414</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.5">
+    <row r="60" spans="1:7" ht="15.75">
       <c r="A60" s="21" t="s">
         <v>420</v>
       </c>
@@ -9636,7 +9636,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15.5">
+    <row r="61" spans="1:7" ht="15.75">
       <c r="A61" s="21" t="s">
         <v>426</v>
       </c>
@@ -9659,7 +9659,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15.5">
+    <row r="62" spans="1:7" ht="15.75">
       <c r="A62" s="21" t="s">
         <v>432</v>
       </c>
@@ -9682,7 +9682,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15.5">
+    <row r="63" spans="1:7" ht="15.75">
       <c r="A63" s="21" t="s">
         <v>439</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15.5">
+    <row r="64" spans="1:7" ht="15.75">
       <c r="A64" s="21" t="s">
         <v>446</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15.5">
+    <row r="65" spans="1:7" ht="15.75">
       <c r="A65" s="21" t="s">
         <v>452</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15.5">
+    <row r="66" spans="1:7" ht="15.75">
       <c r="A66" s="21" t="s">
         <v>458</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15.5">
+    <row r="67" spans="1:7" ht="15.75">
       <c r="A67" s="21" t="s">
         <v>464</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.5">
+    <row r="68" spans="1:7" ht="15.75">
       <c r="A68" s="21" t="s">
         <v>469</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15.5">
+    <row r="69" spans="1:7" ht="15.75">
       <c r="A69" s="21" t="s">
         <v>474</v>
       </c>
@@ -9843,7 +9843,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15.5">
+    <row r="70" spans="1:7" ht="15.75">
       <c r="A70" s="21" t="s">
         <v>479</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15.5">
+    <row r="71" spans="1:7" ht="15.75">
       <c r="A71" s="21" t="s">
         <v>484</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15.5">
+    <row r="72" spans="1:7" ht="15.75">
       <c r="A72" s="21" t="s">
         <v>490</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15.5">
+    <row r="73" spans="1:7" ht="15.75">
       <c r="A73" s="21" t="s">
         <v>496</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15.5">
+    <row r="74" spans="1:7" ht="15.75">
       <c r="A74" s="21" t="s">
         <v>502</v>
       </c>
@@ -9958,7 +9958,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15.5">
+    <row r="75" spans="1:7" ht="15.75">
       <c r="A75" s="21" t="s">
         <v>508</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15.5">
+    <row r="76" spans="1:7" ht="15.75">
       <c r="A76" s="21" t="s">
         <v>514</v>
       </c>
@@ -10004,7 +10004,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15.5">
+    <row r="77" spans="1:7" ht="15.75">
       <c r="A77" s="21" t="s">
         <v>520</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15.5">
+    <row r="78" spans="1:7" ht="15.75">
       <c r="A78" s="21" t="s">
         <v>525</v>
       </c>
@@ -10050,7 +10050,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15.5">
+    <row r="79" spans="1:7" ht="15.75">
       <c r="A79" s="21" t="s">
         <v>530</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15.5">
+    <row r="80" spans="1:7" ht="15.75">
       <c r="A80" s="21" t="s">
         <v>537</v>
       </c>
@@ -10096,7 +10096,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15.5">
+    <row r="81" spans="1:7" ht="15.75">
       <c r="A81" s="21" t="s">
         <v>544</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15.5">
+    <row r="82" spans="1:7" ht="15.75">
       <c r="A82" s="21" t="s">
         <v>549</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15.5">
+    <row r="83" spans="1:7" ht="15.75">
       <c r="A83" s="21" t="s">
         <v>554</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15.5">
+    <row r="84" spans="1:7" ht="15.75">
       <c r="A84" s="21" t="s">
         <v>559</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15.5">
+    <row r="85" spans="1:7" ht="15.75">
       <c r="A85" s="21" t="s">
         <v>564</v>
       </c>
@@ -10211,7 +10211,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15.5">
+    <row r="86" spans="1:7" ht="15.75">
       <c r="A86" s="21" t="s">
         <v>569</v>
       </c>
@@ -10234,7 +10234,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15.5">
+    <row r="87" spans="1:7" ht="15.75">
       <c r="A87" s="21" t="s">
         <v>574</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15.5">
+    <row r="88" spans="1:7" ht="15.75">
       <c r="A88" s="21" t="s">
         <v>579</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15.5">
+    <row r="89" spans="1:7" ht="15.75">
       <c r="A89" s="21" t="s">
         <v>584</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15.5">
+    <row r="90" spans="1:7" ht="15.75">
       <c r="A90" s="21" t="s">
         <v>589</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15.5">
+    <row r="91" spans="1:7" ht="15.75">
       <c r="A91" s="21" t="s">
         <v>594</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15.5">
+    <row r="92" spans="1:7" ht="15.75">
       <c r="A92" s="21" t="s">
         <v>601</v>
       </c>
@@ -10372,7 +10372,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15.5">
+    <row r="93" spans="1:7" ht="15.75">
       <c r="A93" s="21" t="s">
         <v>608</v>
       </c>
@@ -10395,7 +10395,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15.5">
+    <row r="94" spans="1:7" ht="15.75">
       <c r="A94" s="21" t="s">
         <v>614</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15.5">
+    <row r="95" spans="1:7" ht="15.75">
       <c r="A95" s="21" t="s">
         <v>620</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15.5">
+    <row r="96" spans="1:7" ht="15.75">
       <c r="A96" s="21" t="s">
         <v>625</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15.5">
+    <row r="97" spans="1:7" ht="15.75">
       <c r="A97" s="21" t="s">
         <v>630</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15.5">
+    <row r="98" spans="1:7" ht="15.75">
       <c r="A98" s="21" t="s">
         <v>636</v>
       </c>
@@ -10510,7 +10510,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15.5">
+    <row r="99" spans="1:7" ht="15.75">
       <c r="A99" s="21" t="s">
         <v>643</v>
       </c>
@@ -10533,7 +10533,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15.5">
+    <row r="100" spans="1:7" ht="15.75">
       <c r="A100" s="21" t="s">
         <v>650</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15.5">
+    <row r="101" spans="1:7" ht="15.75">
       <c r="A101" s="21" t="s">
         <v>656</v>
       </c>
@@ -10579,7 +10579,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15.5">
+    <row r="102" spans="1:7" ht="15.75">
       <c r="A102" s="21" t="s">
         <v>662</v>
       </c>
@@ -10602,7 +10602,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15.5">
+    <row r="103" spans="1:7" ht="15.75">
       <c r="A103" s="21" t="s">
         <v>669</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15.5">
+    <row r="104" spans="1:7" ht="15.75">
       <c r="A104" s="21" t="s">
         <v>675</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15.5">
+    <row r="105" spans="1:7" ht="15.75">
       <c r="A105" s="21" t="s">
         <v>681</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15.5">
+    <row r="106" spans="1:7" ht="15.75">
       <c r="A106" s="21" t="s">
         <v>687</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15.5">
+    <row r="107" spans="1:7" ht="15.75">
       <c r="A107" s="21" t="s">
         <v>692</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15.5">
+    <row r="108" spans="1:7" ht="15.75">
       <c r="A108" s="21" t="s">
         <v>697</v>
       </c>
@@ -10740,7 +10740,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15.5">
+    <row r="109" spans="1:7" ht="15.75">
       <c r="A109" s="21" t="s">
         <v>702</v>
       </c>
@@ -10763,7 +10763,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15.5">
+    <row r="110" spans="1:7" ht="15.75">
       <c r="A110" s="21" t="s">
         <v>708</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15.5">
+    <row r="111" spans="1:7" ht="15.75">
       <c r="A111" s="21" t="s">
         <v>713</v>
       </c>
@@ -10809,7 +10809,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15.5">
+    <row r="112" spans="1:7" ht="15.75">
       <c r="A112" s="21" t="s">
         <v>718</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="15.5">
+    <row r="113" spans="1:7" ht="15.75">
       <c r="A113" s="21" t="s">
         <v>725</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="15.5">
+    <row r="114" spans="1:7" ht="15.75">
       <c r="A114" s="21" t="s">
         <v>732</v>
       </c>
@@ -10878,7 +10878,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="15.5">
+    <row r="115" spans="1:7" ht="15.75">
       <c r="A115" s="21" t="s">
         <v>739</v>
       </c>
@@ -10901,7 +10901,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15.5">
+    <row r="116" spans="1:7" ht="15.75">
       <c r="A116" s="21" t="s">
         <v>746</v>
       </c>
@@ -10924,7 +10924,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="15.5">
+    <row r="117" spans="1:7" ht="15.75">
       <c r="A117" s="21" t="s">
         <v>752</v>
       </c>
@@ -10947,7 +10947,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="15.5">
+    <row r="118" spans="1:7" ht="15.75">
       <c r="A118" s="21" t="s">
         <v>759</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="15.5">
+    <row r="119" spans="1:7" ht="15.75">
       <c r="A119" s="21" t="s">
         <v>765</v>
       </c>
@@ -10993,7 +10993,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="15.5">
+    <row r="120" spans="1:7" ht="15.75">
       <c r="A120" s="21" t="s">
         <v>771</v>
       </c>
@@ -11016,7 +11016,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15.5">
+    <row r="121" spans="1:7" ht="15.75">
       <c r="A121" s="21" t="s">
         <v>777</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="15.5">
+    <row r="122" spans="1:7" ht="15.75">
       <c r="A122" s="21" t="s">
         <v>783</v>
       </c>
@@ -11062,7 +11062,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="15.5">
+    <row r="123" spans="1:7" ht="15.75">
       <c r="A123" s="21" t="s">
         <v>788</v>
       </c>
@@ -11085,7 +11085,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="15.5">
+    <row r="124" spans="1:7" ht="15.75">
       <c r="A124" s="21" t="s">
         <v>793</v>
       </c>
@@ -11108,7 +11108,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="15.5">
+    <row r="125" spans="1:7" ht="15.75">
       <c r="A125" s="21" t="s">
         <v>798</v>
       </c>
@@ -11131,7 +11131,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="15.5">
+    <row r="126" spans="1:7" ht="15.75">
       <c r="A126" s="21" t="s">
         <v>803</v>
       </c>
@@ -11154,7 +11154,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="15.5">
+    <row r="127" spans="1:7" ht="15.75">
       <c r="A127" s="21" t="s">
         <v>809</v>
       </c>
@@ -11177,7 +11177,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="15.5">
+    <row r="128" spans="1:7" ht="15.75">
       <c r="A128" s="21" t="s">
         <v>815</v>
       </c>
@@ -11200,7 +11200,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="15.5">
+    <row r="129" spans="1:7" ht="15.75">
       <c r="A129" s="21" t="s">
         <v>821</v>
       </c>
@@ -11223,7 +11223,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15.5">
+    <row r="130" spans="1:7" ht="15.75">
       <c r="A130" s="21" t="s">
         <v>827</v>
       </c>
@@ -11246,7 +11246,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="15.5">
+    <row r="131" spans="1:7" ht="15.75">
       <c r="A131" s="21" t="s">
         <v>833</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15.5">
+    <row r="132" spans="1:7" ht="15.75">
       <c r="A132" s="21" t="s">
         <v>839</v>
       </c>
@@ -11292,7 +11292,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="15.5">
+    <row r="133" spans="1:7" ht="15.75">
       <c r="A133" s="21" t="s">
         <v>844</v>
       </c>
@@ -11315,7 +11315,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="15.5">
+    <row r="134" spans="1:7" ht="15.75">
       <c r="A134" s="21" t="s">
         <v>850</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="15.5">
+    <row r="135" spans="1:7" ht="15.75">
       <c r="A135" s="21" t="s">
         <v>856</v>
       </c>
@@ -11361,7 +11361,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="15.5">
+    <row r="136" spans="1:7" ht="15.75">
       <c r="A136" s="21" t="s">
         <v>861</v>
       </c>
@@ -11384,7 +11384,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15.5">
+    <row r="137" spans="1:7" ht="15.75">
       <c r="A137" s="21" t="s">
         <v>866</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="15.5">
+    <row r="138" spans="1:7" ht="15.75">
       <c r="A138" s="21" t="s">
         <v>871</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="15.5">
+    <row r="139" spans="1:7" ht="15.75">
       <c r="A139" s="21" t="s">
         <v>876</v>
       </c>
@@ -11453,7 +11453,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="15.5">
+    <row r="140" spans="1:7" ht="15.75">
       <c r="A140" s="21" t="s">
         <v>882</v>
       </c>
@@ -11476,7 +11476,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="15.5">
+    <row r="141" spans="1:7" ht="15.75">
       <c r="A141" s="21" t="s">
         <v>888</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="15.5">
+    <row r="142" spans="1:7" ht="15.75">
       <c r="A142" s="21" t="s">
         <v>895</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="15.5">
+    <row r="143" spans="1:7" ht="15.75">
       <c r="A143" s="21" t="s">
         <v>902</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="15.5">
+    <row r="144" spans="1:7" ht="15.75">
       <c r="A144" s="21" t="s">
         <v>908</v>
       </c>
@@ -11568,7 +11568,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="15.5">
+    <row r="145" spans="1:7" ht="15.75">
       <c r="A145" s="21" t="s">
         <v>914</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="15.5">
+    <row r="146" spans="1:7" ht="15.75">
       <c r="A146" s="21" t="s">
         <v>920</v>
       </c>
@@ -11614,7 +11614,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="15.5">
+    <row r="147" spans="1:7" ht="15.75">
       <c r="A147" s="21" t="s">
         <v>926</v>
       </c>
@@ -11637,7 +11637,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="15.5">
+    <row r="148" spans="1:7" ht="15.75">
       <c r="A148" s="21" t="s">
         <v>933</v>
       </c>
@@ -11660,7 +11660,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="15.5">
+    <row r="149" spans="1:7" ht="15.75">
       <c r="A149" s="21" t="s">
         <v>939</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="15.5">
+    <row r="150" spans="1:7" ht="15.75">
       <c r="A150" s="21" t="s">
         <v>945</v>
       </c>
@@ -11706,7 +11706,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="15.5">
+    <row r="151" spans="1:7" ht="15.75">
       <c r="A151" s="21" t="s">
         <v>951</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="15.5">
+    <row r="152" spans="1:7" ht="15.75">
       <c r="A152" s="21" t="s">
         <v>957</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="15.5">
+    <row r="153" spans="1:7" ht="15.75">
       <c r="A153" s="21" t="s">
         <v>963</v>
       </c>
@@ -11775,7 +11775,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="15.5">
+    <row r="154" spans="1:7" ht="15.75">
       <c r="A154" s="21" t="s">
         <v>969</v>
       </c>
@@ -11798,7 +11798,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="15.5">
+    <row r="155" spans="1:7" ht="15.75">
       <c r="A155" s="21" t="s">
         <v>974</v>
       </c>
@@ -11821,7 +11821,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="15.5">
+    <row r="156" spans="1:7" ht="15.75">
       <c r="A156" s="21" t="s">
         <v>980</v>
       </c>
@@ -11844,7 +11844,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="15.5">
+    <row r="157" spans="1:7" ht="15.75">
       <c r="A157" s="21" t="s">
         <v>986</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="15.5">
+    <row r="158" spans="1:7" ht="15.75">
       <c r="A158" s="21" t="s">
         <v>991</v>
       </c>
@@ -11890,7 +11890,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="15.5">
+    <row r="159" spans="1:7" ht="15.75">
       <c r="A159" s="21" t="s">
         <v>996</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="15.5">
+    <row r="160" spans="1:7" ht="15.75">
       <c r="A160" s="21" t="s">
         <v>1001</v>
       </c>
@@ -11936,7 +11936,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="15.5">
+    <row r="161" spans="1:7" ht="15.75">
       <c r="A161" s="21" t="s">
         <v>1006</v>
       </c>
@@ -11959,7 +11959,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="15.5">
+    <row r="162" spans="1:7" ht="15.75">
       <c r="A162" s="21" t="s">
         <v>1012</v>
       </c>
@@ -11982,7 +11982,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="15.5">
+    <row r="163" spans="1:7" ht="15.75">
       <c r="A163" s="21" t="s">
         <v>1018</v>
       </c>
@@ -12005,7 +12005,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="15.5">
+    <row r="164" spans="1:7" ht="15.75">
       <c r="A164" s="21" t="s">
         <v>1024</v>
       </c>
@@ -12028,7 +12028,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="15.5">
+    <row r="165" spans="1:7" ht="15.75">
       <c r="A165" s="21" t="s">
         <v>1030</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="15.5">
+    <row r="166" spans="1:7" ht="15.75">
       <c r="A166" s="21" t="s">
         <v>1035</v>
       </c>
@@ -12074,7 +12074,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="15.5">
+    <row r="167" spans="1:7" ht="15.75">
       <c r="A167" s="21" t="s">
         <v>1040</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="15.5">
+    <row r="168" spans="1:7" ht="15.75">
       <c r="A168" s="21" t="s">
         <v>1046</v>
       </c>
@@ -12120,7 +12120,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="15.5">
+    <row r="169" spans="1:7" ht="15.75">
       <c r="A169" s="21" t="s">
         <v>1052</v>
       </c>
@@ -12143,7 +12143,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="15.5">
+    <row r="170" spans="1:7" ht="15.75">
       <c r="A170" s="21" t="s">
         <v>1057</v>
       </c>
@@ -12166,7 +12166,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="15.5">
+    <row r="171" spans="1:7" ht="15.75">
       <c r="A171" s="21" t="s">
         <v>1062</v>
       </c>
@@ -12189,7 +12189,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="15.5">
+    <row r="172" spans="1:7" ht="15.75">
       <c r="A172" s="21" t="s">
         <v>1067</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="15.5">
+    <row r="173" spans="1:7" ht="15.75">
       <c r="A173" s="21" t="s">
         <v>1072</v>
       </c>
@@ -12235,7 +12235,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="15.5">
+    <row r="174" spans="1:7" ht="15.75">
       <c r="A174" s="21" t="s">
         <v>1079</v>
       </c>
@@ -12258,7 +12258,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="15.5">
+    <row r="175" spans="1:7" ht="15.75">
       <c r="A175" s="21" t="s">
         <v>1086</v>
       </c>
@@ -12281,7 +12281,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="15.5">
+    <row r="176" spans="1:7" ht="15.75">
       <c r="A176" s="21" t="s">
         <v>1092</v>
       </c>
@@ -12304,7 +12304,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="15.5">
+    <row r="177" spans="1:7" ht="15.75">
       <c r="A177" s="21" t="s">
         <v>1098</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="15.5">
+    <row r="178" spans="1:7" ht="15.75">
       <c r="A178" s="21" t="s">
         <v>1104</v>
       </c>
@@ -12350,7 +12350,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="15.5">
+    <row r="179" spans="1:7" ht="15.75">
       <c r="A179" s="21" t="s">
         <v>1111</v>
       </c>
@@ -12373,7 +12373,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="15.5">
+    <row r="180" spans="1:7" ht="15.75">
       <c r="A180" s="21" t="s">
         <v>1118</v>
       </c>
@@ -12396,7 +12396,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="15.5">
+    <row r="181" spans="1:7" ht="15.75">
       <c r="A181" s="21" t="s">
         <v>1124</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="15.5">
+    <row r="182" spans="1:7" ht="15.75">
       <c r="A182" s="21" t="s">
         <v>1130</v>
       </c>
@@ -12442,7 +12442,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="15.5">
+    <row r="183" spans="1:7" ht="15.75">
       <c r="A183" s="21" t="s">
         <v>1135</v>
       </c>
@@ -12662,13 +12662,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" style="28" customWidth="1"/>
-    <col min="2" max="2" width="41.453125" style="28" customWidth="1"/>
-    <col min="3" max="5" width="16.1796875" style="29" customWidth="1"/>
-    <col min="6" max="7" width="9.1796875" style="29" customWidth="1"/>
-    <col min="8" max="16384" width="14.81640625" style="29"/>
+    <col min="1" max="1" width="16.140625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="28" customWidth="1"/>
+    <col min="3" max="5" width="16.140625" style="29" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="29" customWidth="1"/>
+    <col min="8" max="16384" width="14.85546875" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1">
@@ -12685,7 +12685,7 @@
       <c r="E1" s="42"/>
       <c r="F1" s="32"/>
     </row>
-    <row r="2" spans="1:6" ht="15.5">
+    <row r="2" spans="1:6">
       <c r="A2" s="30" t="s">
         <v>1143</v>
       </c>
@@ -12697,7 +12697,7 @@
       <c r="E2" s="42"/>
       <c r="F2" s="32"/>
     </row>
-    <row r="3" spans="1:6" ht="15.5">
+    <row r="3" spans="1:6">
       <c r="A3" s="30" t="s">
         <v>1145</v>
       </c>
@@ -12788,7 +12788,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.5">
+    <row r="13" spans="1:6">
       <c r="A13" s="30" t="s">
         <v>1166</v>
       </c>
@@ -12852,7 +12852,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.5">
+    <row r="21" spans="1:2">
       <c r="A21" s="30" t="s">
         <v>1182</v>
       </c>
@@ -14745,10 +14745,10 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="61" customWidth="1"/>
-    <col min="3" max="7" width="9.1796875" customWidth="1"/>
+    <col min="3" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -14764,7 +14764,7 @@
     <row r="3" spans="1:1">
       <c r="A3" s="37"/>
     </row>
-    <row r="4" spans="1:1" ht="170.5">
+    <row r="4" spans="1:1" ht="165.75">
       <c r="A4" s="38" t="s">
         <v>1651</v>
       </c>
